--- a/data/stock_data_graphs.xlsx
+++ b/data/stock_data_graphs.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="stock_data_graphs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -765,11 +765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118198272"/>
-        <c:axId val="118199808"/>
+        <c:axId val="51524736"/>
+        <c:axId val="51526272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118198272"/>
+        <c:axId val="51524736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,14 +779,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118199808"/>
+        <c:crossAx val="51526272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118199808"/>
+        <c:axId val="51526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,7 +797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118198272"/>
+        <c:crossAx val="51524736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,11 +1013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117937280"/>
-        <c:axId val="117938816"/>
+        <c:axId val="51634176"/>
+        <c:axId val="51635712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117937280"/>
+        <c:axId val="51634176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,14 +1027,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117938816"/>
+        <c:crossAx val="51635712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117938816"/>
+        <c:axId val="51635712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117937280"/>
+        <c:crossAx val="51634176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,11 +1249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51525504"/>
-        <c:axId val="51527040"/>
+        <c:axId val="54525312"/>
+        <c:axId val="55060736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="51525504"/>
+        <c:axId val="54525312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,14 +1263,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51527040"/>
+        <c:crossAx val="55060736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="51527040"/>
+        <c:axId val="55060736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51525504"/>
+        <c:crossAx val="54525312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,11 +1485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51534848"/>
-        <c:axId val="51641344"/>
+        <c:axId val="55123328"/>
+        <c:axId val="80589952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="51534848"/>
+        <c:axId val="55123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,14 +1499,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51641344"/>
+        <c:crossAx val="80589952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="51641344"/>
+        <c:axId val="80589952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1517,1012 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51534848"/>
+        <c:crossAx val="55123328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stock Price Changes</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>stock_data_graphs!$N$3:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stock_data_graphs!$P$3:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.39999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.24249999999999972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35749999999999815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52250000000000085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55250000000000199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56750000000000256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.65749999999999886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13500000000000156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7499999999999432E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.53249999999999886</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.2050000000000054</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7500000000002558E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15749999999999886</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Sentiment</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>stock_data_graphs!$N$3:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stock_data_graphs!$Q$3:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.6666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.55555555555555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7555555555555502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3636363636363602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.32258064516129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.91891891891891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5882352941176401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8028169014084501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3319148936170202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.81395348837209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.71428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="87990272"/>
+        <c:axId val="87991808"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="87990272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87991808"/>
+        <c:crossesAt val="-1"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="87991808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="87990272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65587379702537185"/>
+          <c:y val="0.31867672790901136"/>
+          <c:w val="0.30801509186351705"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>stock_data_graphs!$N$22:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stock_data_graphs!$P$22:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.23700000000000046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15099999999999911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86599999999999688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.36699999999999594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71899999999999409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.81899999999999418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4330000000000041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38300000000000411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3840000000000032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11700000000000728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.76500000000000912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19600000000000364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6999999999998182E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22999999999999546</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2940000000000056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29199999999999593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>stock_data_graphs!$N$22:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stock_data_graphs!$Q$22:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.52941176470588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.91525423728813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4615384615384599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6885245901639299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3703703703703698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0476190476190399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5925925925925899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2372881355932202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0281690140844999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4912280701754299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5263157894736801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8571428571428501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="85066880"/>
+        <c:axId val="85069184"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="85066880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85069184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="85069184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85066880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stock Price Change</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>stock_data_graphs!$N$41:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stock_data_graphs!$P$41:$P$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.12150000000000034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.25300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29900000000000093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8499999999999946E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.11949999999999933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13350000000000081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17100000000000082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8000000000000115E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.33750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.0500000000000122E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11149999999999949</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.30049999999999955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19249999999999973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Sentiment</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>stock_data_graphs!$N$41:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stock_data_graphs!$Q$41:$Q$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.4615384615384599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6956521739130399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.97435897435897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5833333333333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1578947368421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7636363636363601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3255813953488298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.88888888888888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5714285714285698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.70588235294117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9473684210526301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="54495872"/>
+        <c:axId val="54625024"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="54495872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54625024"/>
+        <c:crossesAt val="-1"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="54625024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54495872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,6 +2661,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1951,18 +3046,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1989,8 +3086,9 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2003,8 +3101,21 @@
       <c r="D3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>42083</v>
+      </c>
+      <c r="O3">
+        <v>125.9</v>
+      </c>
+      <c r="P3">
+        <f>0.25*(O3-O4)</f>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="Q3">
+        <v>2.6666666666666599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2017,8 +3128,21 @@
       <c r="D4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>42082</v>
+      </c>
+      <c r="O4">
+        <v>127.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P18" si="0">0.25*(O4-O5)</f>
+        <v>-0.24249999999999972</v>
+      </c>
+      <c r="Q4">
+        <v>2.55555555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2031,8 +3155,21 @@
       <c r="D5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>42081</v>
+      </c>
+      <c r="O5">
+        <v>128.47</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.35749999999999815</v>
+      </c>
+      <c r="Q5">
+        <v>2.7555555555555502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2045,8 +3182,21 @@
       <c r="D6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>42080</v>
+      </c>
+      <c r="O6">
+        <v>127.04</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.52250000000000085</v>
+      </c>
+      <c r="Q6">
+        <v>2.3636363636363602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2059,8 +3209,21 @@
       <c r="D7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>42079</v>
+      </c>
+      <c r="O7">
+        <v>124.95</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="Q7">
+        <v>2.32258064516129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2073,8 +3236,21 @@
       <c r="D8">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>42076</v>
+      </c>
+      <c r="O8">
+        <v>123.59</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-0.21499999999999986</v>
+      </c>
+      <c r="Q8">
+        <v>2.91891891891891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2087,8 +3263,21 @@
       <c r="D9">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>42075</v>
+      </c>
+      <c r="O9">
+        <v>124.45</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.55250000000000199</v>
+      </c>
+      <c r="Q9">
+        <v>2.5882352941176401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2101,8 +3290,21 @@
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>42074</v>
+      </c>
+      <c r="O10">
+        <v>122.24</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-0.56750000000000256</v>
+      </c>
+      <c r="Q10">
+        <v>1.8028169014084501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2115,8 +3317,21 @@
       <c r="D11">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <v>42073</v>
+      </c>
+      <c r="O11">
+        <v>124.51</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>-0.65749999999999886</v>
+      </c>
+      <c r="Q11">
+        <v>2.3319148936170202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2129,8 +3344,21 @@
       <c r="D12">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>42072</v>
+      </c>
+      <c r="O12">
+        <v>127.14</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.13500000000000156</v>
+      </c>
+      <c r="Q12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2143,8 +3371,21 @@
       <c r="D13">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>42069</v>
+      </c>
+      <c r="O13">
+        <v>126.6</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999432E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.81395348837209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2157,8 +3398,21 @@
       <c r="D14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>42068</v>
+      </c>
+      <c r="O14">
+        <v>126.41</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>-0.53249999999999886</v>
+      </c>
+      <c r="Q14">
+        <v>2.71428571428571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2171,8 +3425,21 @@
       <c r="D15">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>42067</v>
+      </c>
+      <c r="O15">
+        <v>128.54</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>-0.2050000000000054</v>
+      </c>
+      <c r="Q15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2185,8 +3452,21 @@
       <c r="D16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <v>42066</v>
+      </c>
+      <c r="O16">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>6.7500000000002558E-2</v>
+      </c>
+      <c r="Q16">
+        <v>2.5333333333333301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2199,8 +3479,21 @@
       <c r="D17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N17" s="1">
+        <v>42065</v>
+      </c>
+      <c r="O17">
+        <v>129.09</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0.15749999999999886</v>
+      </c>
+      <c r="Q17">
+        <v>2.6666666666666599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2213,8 +3506,21 @@
       <c r="D18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <v>42062</v>
+      </c>
+      <c r="O18">
+        <v>128.46</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>-0.48999999999999488</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2227,8 +3533,14 @@
       <c r="D19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <v>42061</v>
+      </c>
+      <c r="O19">
+        <v>130.41999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +3554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +3568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2269,8 +3581,21 @@
       <c r="D22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <v>42083</v>
+      </c>
+      <c r="O22">
+        <v>560.36</v>
+      </c>
+      <c r="P22">
+        <f>0.1*(O22-O23)</f>
+        <v>0.23700000000000046</v>
+      </c>
+      <c r="Q22">
+        <v>2.52941176470588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2283,8 +3608,21 @@
       <c r="D23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <v>42082</v>
+      </c>
+      <c r="O23">
+        <v>557.99</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P37" si="1">0.1*(O23-O24)</f>
+        <v>-0.15099999999999911</v>
+      </c>
+      <c r="Q23">
+        <v>2.91525423728813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2297,8 +3635,21 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N24" s="1">
+        <v>42081</v>
+      </c>
+      <c r="O24">
+        <v>559.5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.86599999999999688</v>
+      </c>
+      <c r="Q24">
+        <v>2.4615384615384599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2311,8 +3662,21 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N25" s="1">
+        <v>42080</v>
+      </c>
+      <c r="O25">
+        <v>550.84</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>-0.36699999999999594</v>
+      </c>
+      <c r="Q25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2325,8 +3689,21 @@
       <c r="D26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N26" s="1">
+        <v>42079</v>
+      </c>
+      <c r="O26">
+        <v>554.51</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.71899999999999409</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2339,8 +3716,21 @@
       <c r="D27">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N27" s="1">
+        <v>42076</v>
+      </c>
+      <c r="O27">
+        <v>547.32000000000005</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>-0.81899999999999418</v>
+      </c>
+      <c r="Q27">
+        <v>2.1333333333333302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2353,8 +3743,21 @@
       <c r="D28">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N28" s="1">
+        <v>42075</v>
+      </c>
+      <c r="O28">
+        <v>555.51</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.4330000000000041</v>
+      </c>
+      <c r="Q28">
+        <v>2.6885245901639299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2367,8 +3770,21 @@
       <c r="D29">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N29" s="1">
+        <v>42074</v>
+      </c>
+      <c r="O29">
+        <v>551.17999999999995</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>-0.38300000000000411</v>
+      </c>
+      <c r="Q29">
+        <v>2.3703703703703698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2381,8 +3797,21 @@
       <c r="D30">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N30" s="1">
+        <v>42073</v>
+      </c>
+      <c r="O30">
+        <v>555.01</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>-1.3840000000000032</v>
+      </c>
+      <c r="Q30">
+        <v>3.0476190476190399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2395,8 +3824,21 @@
       <c r="D31">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N31" s="1">
+        <v>42072</v>
+      </c>
+      <c r="O31">
+        <v>568.85</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.11700000000000728</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2409,8 +3851,21 @@
       <c r="D32">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N32" s="1">
+        <v>42069</v>
+      </c>
+      <c r="O32">
+        <v>567.67999999999995</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>-0.76500000000000912</v>
+      </c>
+      <c r="Q32">
+        <v>2.5925925925925899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2423,8 +3878,21 @@
       <c r="D33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N33" s="1">
+        <v>42068</v>
+      </c>
+      <c r="O33">
+        <v>575.33000000000004</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.19600000000000364</v>
+      </c>
+      <c r="Q33">
+        <v>2.2372881355932202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2437,8 +3905,21 @@
       <c r="D34">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N34" s="1">
+        <v>42067</v>
+      </c>
+      <c r="O34">
+        <v>573.37</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>-2.6999999999998182E-2</v>
+      </c>
+      <c r="Q34">
+        <v>2.0281690140844999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2451,8 +3932,21 @@
       <c r="D35">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N35" s="1">
+        <v>42066</v>
+      </c>
+      <c r="O35">
+        <v>573.64</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999546</v>
+      </c>
+      <c r="Q35">
+        <v>2.4912280701754299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2465,8 +3959,21 @@
       <c r="D36">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N36" s="1">
+        <v>42065</v>
+      </c>
+      <c r="O36">
+        <v>571.34</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>1.2940000000000056</v>
+      </c>
+      <c r="Q36">
+        <v>2.5263157894736801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2479,8 +3986,21 @@
       <c r="D37">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N37" s="1">
+        <v>42062</v>
+      </c>
+      <c r="O37">
+        <v>558.4</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>0.29199999999999593</v>
+      </c>
+      <c r="Q37">
+        <v>2.8571428571428501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2493,8 +4013,14 @@
       <c r="D38">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N38" s="1">
+        <v>42061</v>
+      </c>
+      <c r="O38">
+        <v>555.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +4034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +4048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2535,8 +4061,21 @@
       <c r="D41">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N41" s="1">
+        <v>42083</v>
+      </c>
+      <c r="O41">
+        <v>198.08</v>
+      </c>
+      <c r="P41">
+        <f>0.05*(O41-O42)</f>
+        <v>0.12150000000000034</v>
+      </c>
+      <c r="Q41">
+        <v>2.4615384615384599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2549,8 +4088,21 @@
       <c r="D42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N42" s="1">
+        <v>42082</v>
+      </c>
+      <c r="O42">
+        <v>195.65</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P56" si="2">0.05*(O42-O43)</f>
+        <v>-0.25300000000000011</v>
+      </c>
+      <c r="Q42">
+        <v>2.6956521739130399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2563,8 +4115,21 @@
       <c r="D43">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N43" s="1">
+        <v>42081</v>
+      </c>
+      <c r="O43">
+        <v>200.71</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0.29900000000000093</v>
+      </c>
+      <c r="Q43">
+        <v>2.97435897435897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2577,8 +4142,21 @@
       <c r="D44">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N44" s="1">
+        <v>42080</v>
+      </c>
+      <c r="O44">
+        <v>194.73</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>-4.8499999999999946E-2</v>
+      </c>
+      <c r="Q44">
+        <v>2.5833333333333299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2591,8 +4169,21 @@
       <c r="D45">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N45" s="1">
+        <v>42079</v>
+      </c>
+      <c r="O45">
+        <v>195.7</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0.35099999999999909</v>
+      </c>
+      <c r="Q45">
+        <v>3.1578947368421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2605,8 +4196,21 @@
       <c r="D46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N46" s="1">
+        <v>42076</v>
+      </c>
+      <c r="O46">
+        <v>188.68</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>-0.11949999999999933</v>
+      </c>
+      <c r="Q46">
+        <v>2.7636363636363601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2619,8 +4223,21 @@
       <c r="D47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N47" s="1">
+        <v>42075</v>
+      </c>
+      <c r="O47">
+        <v>191.07</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>-0.13350000000000081</v>
+      </c>
+      <c r="Q47">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2633,8 +4250,21 @@
       <c r="D48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N48" s="1">
+        <v>42074</v>
+      </c>
+      <c r="O48">
+        <v>193.74</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>0.17100000000000082</v>
+      </c>
+      <c r="Q48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2647,8 +4277,21 @@
       <c r="D49">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N49" s="1">
+        <v>42073</v>
+      </c>
+      <c r="O49">
+        <v>190.32</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>-2.8000000000000115E-2</v>
+      </c>
+      <c r="Q49">
+        <v>2.3255813953488298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2661,8 +4304,21 @@
       <c r="D50">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N50" s="1">
+        <v>42072</v>
+      </c>
+      <c r="O50">
+        <v>190.88</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2675,8 +4331,21 @@
       <c r="D51">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N51" s="1">
+        <v>42069</v>
+      </c>
+      <c r="O51">
+        <v>193.88</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>-0.33750000000000002</v>
+      </c>
+      <c r="Q51">
+        <v>2.88888888888888</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2689,8 +4358,21 @@
       <c r="D52">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N52" s="1">
+        <v>42068</v>
+      </c>
+      <c r="O52">
+        <v>200.63</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>-9.0500000000000122E-2</v>
+      </c>
+      <c r="Q52">
+        <v>2.5714285714285698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2703,8 +4385,21 @@
       <c r="D53">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N53" s="1">
+        <v>42067</v>
+      </c>
+      <c r="O53">
+        <v>202.44</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>0.14399999999999977</v>
+      </c>
+      <c r="Q53">
+        <v>2.70588235294117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2717,8 +4412,21 @@
       <c r="D54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N54" s="1">
+        <v>42066</v>
+      </c>
+      <c r="O54">
+        <v>199.56</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>0.11149999999999949</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2731,8 +4439,21 @@
       <c r="D55">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N55" s="1">
+        <v>42065</v>
+      </c>
+      <c r="O55">
+        <v>197.33</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="2"/>
+        <v>-0.30049999999999955</v>
+      </c>
+      <c r="Q55">
+        <v>2.9473684210526301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2745,8 +4466,21 @@
       <c r="D56">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N56" s="1">
+        <v>42062</v>
+      </c>
+      <c r="O56">
+        <v>203.34</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="2"/>
+        <v>-0.19249999999999973</v>
+      </c>
+      <c r="Q56">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2759,8 +4493,14 @@
       <c r="D57">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N57" s="1">
+        <v>42061</v>
+      </c>
+      <c r="O57">
+        <v>207.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2774,7 +4514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +4528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2802,7 +4542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +4556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +4570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +4584,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
